--- a/278-rc---esmsconsent---missing-status-constraint/ig/all-profiles.xlsx
+++ b/278-rc---esmsconsent---missing-status-constraint/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T13:13:08+00:00</t>
+    <t>2024-12-04T13:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -12216,7 +12216,7 @@
         <v>74</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>74</v>
